--- a/data/content/WeaponNames.xlsx
+++ b/data/content/WeaponNames.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\EndlessBattleFC\data\content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="986" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
-    <sheet name="WeaponNames_dagger" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="WeaponNames_sword" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="WeaponNames_sword2h" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="WeaponNames_mace" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="WeaponNames_mace2h" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="WeaponNames_axe" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="WeaponNames_axe2h" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="WeaponNames_spear" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="WeaponNames_staff" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="WeaponNames_wand" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="WeaponNames_bow" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="WeaponNames_crossbow" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="WeaponNames_shield" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="WeaponNames_orb" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="WeaponNames_dagger" sheetId="1" r:id="rId1"/>
+    <sheet name="WeaponNames_sword" sheetId="2" r:id="rId2"/>
+    <sheet name="WeaponNames_sword2h" sheetId="3" r:id="rId3"/>
+    <sheet name="WeaponNames_mace" sheetId="4" r:id="rId4"/>
+    <sheet name="WeaponNames_mace2h" sheetId="5" r:id="rId5"/>
+    <sheet name="WeaponNames_axe" sheetId="6" r:id="rId6"/>
+    <sheet name="WeaponNames_axe2h" sheetId="7" r:id="rId7"/>
+    <sheet name="WeaponNames_spear" sheetId="8" r:id="rId8"/>
+    <sheet name="WeaponNames_staff" sheetId="9" r:id="rId9"/>
+    <sheet name="WeaponNames_wand" sheetId="10" r:id="rId10"/>
+    <sheet name="WeaponNames_bow" sheetId="11" r:id="rId11"/>
+    <sheet name="WeaponNames_crossbow" sheetId="12" r:id="rId12"/>
+    <sheet name="WeaponNames_shield" sheetId="13" r:id="rId13"/>
+    <sheet name="WeaponNames_orb" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Dagger</t>
   </si>
@@ -293,36 +297,24 @@
   <si>
     <t>Sphere</t>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +326,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -342,863 +334,1103 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col min="1" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>